--- a/data/trans_dic/P16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,72%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>42,81; 74,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>25,19; 57,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>28,62; 71,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>52,51; 84,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>50,01; 77,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>44,41; 72,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>53,01; 76,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>43,19; 63,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>44,05; 67,45</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,28%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>52,28; 83,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>48,09; 73,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>30,66; 58,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>47,16; 75,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>44,61; 70,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>58,13; 85,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>53,12; 74,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>49,95; 68,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>46,84; 66,27</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,49%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,56%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>56,76; 84,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>51,45; 78,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>34,97; 63,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>57,72; 84,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>54,1; 80,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>48,75; 76,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>62,18; 81,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>57,59; 76,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>46,27; 66,94</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>44,92; 85,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>47,15; 79,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>23,69; 55,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>55,6; 91,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>52,39; 80,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>46,25; 76,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>55,56; 83,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>55,06; 74,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>39,83; 64,94</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,09%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,74%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,47%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>64,44; 93,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>55,99; 87,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>63,66; 91,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>65,67; 95,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>53,7; 88,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>61,15; 89,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>71,24; 92,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>61,45; 83,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>67,01; 87,55</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,09%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>77,11; 94,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>89,84; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>80,3; 95,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>66,29; 88,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>89,75; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>52,39; 80,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>75,9; 90,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>92,74; 99,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>67,41; 84,65</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,49%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>69,05; 81,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>63,79; 75,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>53,79; 66,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>66,96; 78,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>66,36; 76,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>61,11; 72,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>69,95; 78,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>66,76; 74,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>59,27; 67,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>81,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78,8%</t>
+          <t>78,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>66,43%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>83,93%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>79,46%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>77,11; 94,28</t>
+          <t>72,0; 96,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,84; 100,0</t>
+          <t>83,07; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,3; 95,42</t>
+          <t>63,58; 92,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>66,29; 88,58</t>
+          <t>60,59; 90,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,75; 100,0</t>
+          <t>80,6; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,39; 80,18</t>
+          <t>56,54; 89,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>75,9; 90,36</t>
+          <t>72,38; 91,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,74; 99,23</t>
+          <t>88,08; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,41; 84,65</t>
+          <t>68,46; 90,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>75,17%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>69,42%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>60,19%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>66,42%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>63,49%</t>
+          <t>75,24%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>70,3; 97,54</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>86,16; 100,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>83,89; 100,0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>50,55; 93,2</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>85,05; 100,0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39,18; 77,66</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>72,84; 93,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>91,34; 100,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>62,85; 85,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>75,17%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>69,42%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>60,19%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>72,08%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66,42%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>70,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>63,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>69,05; 81,13</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>63,79; 75,1</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>53,79; 66,55</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>66,96; 78,9</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>66,36; 76,65</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>61,11; 72,41</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>69,95; 78,06</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>66,76; 74,33</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>59,27; 67,94</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B01-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,81; 74,19</t>
+          <t>43,53; 73,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 57,9</t>
+          <t>27,41; 57,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,62; 71,27</t>
+          <t>29,06; 72,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,51; 84,12</t>
+          <t>52,96; 85,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,01; 77,78</t>
+          <t>49,3; 77,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,41; 72,39</t>
+          <t>43,58; 72,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 76,32</t>
+          <t>52,06; 75,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43,19; 63,79</t>
+          <t>42,67; 64,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,05; 67,45</t>
+          <t>43,83; 66,38</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,28; 83,19</t>
+          <t>50,83; 82,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,09; 73,17</t>
+          <t>47,85; 73,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,66; 58,64</t>
+          <t>29,69; 58,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,16; 75,63</t>
+          <t>44,8; 74,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,61; 70,1</t>
+          <t>44,77; 70,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,13; 85,03</t>
+          <t>58,78; 82,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,12; 74,61</t>
+          <t>54,68; 75,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,95; 68,44</t>
+          <t>49,99; 68,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,84; 66,27</t>
+          <t>47,41; 67,53</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,76; 84,82</t>
+          <t>57,99; 86,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,45; 78,22</t>
+          <t>51,59; 78,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,97; 63,65</t>
+          <t>36,04; 63,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,72; 84,05</t>
+          <t>57,08; 84,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,1; 80,57</t>
+          <t>54,43; 82,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,75; 76,52</t>
+          <t>49,15; 75,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>62,18; 81,75</t>
+          <t>62,96; 81,9</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>57,59; 76,95</t>
+          <t>57,39; 76,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,27; 66,94</t>
+          <t>47,18; 66,47</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,92; 85,11</t>
+          <t>45,93; 86,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,15; 79,51</t>
+          <t>47,77; 78,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,69; 55,86</t>
+          <t>23,6; 56,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,6; 91,5</t>
+          <t>56,58; 91,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,39; 80,37</t>
+          <t>51,43; 81,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,25; 76,71</t>
+          <t>44,49; 76,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,56; 83,39</t>
+          <t>58,06; 84,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,06; 74,95</t>
+          <t>56,0; 76,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,83; 64,94</t>
+          <t>40,01; 63,36</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,44; 93,53</t>
+          <t>64,46; 93,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>55,99; 87,17</t>
+          <t>57,17; 86,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,66; 91,06</t>
+          <t>61,06; 90,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,67; 95,43</t>
+          <t>66,24; 95,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,7; 88,55</t>
+          <t>52,22; 88,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,15; 89,51</t>
+          <t>60,0; 89,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,24; 92,12</t>
+          <t>73,11; 92,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>61,45; 83,71</t>
+          <t>60,8; 83,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67,01; 87,55</t>
+          <t>65,5; 86,54</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>72,0; 96,78</t>
+          <t>73,88; 96,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>83,07; 100,0</t>
+          <t>83,37; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,58; 92,98</t>
+          <t>61,64; 92,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>60,59; 90,85</t>
+          <t>60,42; 90,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,6; 100,0</t>
+          <t>80,95; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,54; 89,51</t>
+          <t>57,54; 89,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>72,38; 91,28</t>
+          <t>72,75; 90,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,08; 100,0</t>
+          <t>88,62; 100,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>68,46; 90,52</t>
+          <t>66,26; 89,01</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,3; 97,54</t>
+          <t>71,43; 97,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>86,16; 100,0</t>
+          <t>88,0; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83,89; 100,0</t>
+          <t>83,8; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,55; 93,2</t>
+          <t>50,53; 93,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,05; 100,0</t>
+          <t>84,63; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>39,18; 77,66</t>
+          <t>36,92; 75,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>72,84; 93,24</t>
+          <t>70,98; 93,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,34; 100,0</t>
+          <t>91,43; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,85; 85,89</t>
+          <t>60,86; 85,94</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69,05; 81,13</t>
+          <t>69,52; 80,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,79; 75,1</t>
+          <t>63,36; 75,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,79; 66,55</t>
+          <t>53,66; 66,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>66,96; 78,9</t>
+          <t>66,73; 79,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,36; 76,65</t>
+          <t>66,29; 76,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,11; 72,41</t>
+          <t>60,52; 71,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>69,95; 78,06</t>
+          <t>70,04; 77,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>66,76; 74,33</t>
+          <t>66,69; 74,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,27; 67,94</t>
+          <t>58,82; 67,5</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el catarro fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21049</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17187</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12406</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21032</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33118</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26646</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>42081</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50305</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39052</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15385; 26105</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11373; 23892</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7145; 17769</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15863; 25501</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25292; 39856</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>19824; 33090</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33994; 49111</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>39592; 60153</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30716; 46517</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23963</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38596</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22269</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33051</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>33519</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53204</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71646</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55788</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17493; 28404</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30416; 46674</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15044; 29758</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21218; 35239</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>25451; 40140</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27465; 38414</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44715; 61758</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>60195; 82031</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46168; 65770</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28727</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37367</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24390</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>37079</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35618</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31981</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65807</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>56371</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22730; 33999</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29238; 44699</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17744; 31450</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28800; 42832</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28260; 42633</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24789; 37920</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56444; 73419</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62321; 82629</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>47024; 66251</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18377</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>30741</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15491</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16738</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>31485</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26412</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>35115</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62226</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41904</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12298; 23275</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22935; 37557</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9135; 21894</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12339; 20038</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23761; 37688</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>18914; 32507</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28208; 41035</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>52763; 72007</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32497; 51460</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>21753</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>29665</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29572</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18292</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>19816</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31895</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40045</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49481</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>61466</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16994; 24596</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22836; 34576</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22566; 33559</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14153; 20387</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14183; 24040</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>24825; 36874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>34891; 44014</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40797; 55987</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51310; 67791</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>25672</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31011</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>20761</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>22952</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24402</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>21046</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>48624</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>55413</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>41806</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>21698; 28461</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>26703; 32028</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15667; 23596</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17612; 26343</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>20513; 25339</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>15651; 24396</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>42572; 53221</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>50838; 57367</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34865; 46833</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>30882</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>38360</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>29821</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>35104</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20913</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>43550</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>73465</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>50734</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25181; 34346</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>34682; 39411</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26374; 31471</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8111; 14970</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30619; 36181</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>13278; 27207</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36419; 47722</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>69111; 75592</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>41042; 57947</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>170424</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>222927</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>154709</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>158002</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>212595</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>192413</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>328425</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>435522</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>347122</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>157612; 183090</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>203461; 240909</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>137942; 170266</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>144232; 170951</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>195530; 226417</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>175313; 208015</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>310172; 344439</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>410887; 458392</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>321595; 369065</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>